--- a/public/template/info_exporte.xlsx
+++ b/public/template/info_exporte.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId4"/>
     <sheet name="Indicateurs" sheetId="2" r:id="rId5"/>
-    <sheet name="Statut" sheetId="3" r:id="rId6"/>
+    <sheet name="Sexe" sheetId="3" r:id="rId6"/>
     <sheet name="Donnees" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
@@ -35,7 +35,7 @@
     <t>dimensions</t>
   </si>
   <si>
-    <t>Indicateurs;Statut;</t>
+    <t>Indicateurs;Sexe;</t>
   </si>
   <si>
     <t>data</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">Effectifs des agents civils de l’Etat ayant bénéficié de bourses </t>
   </si>
   <si>
-    <t>ACE</t>
-  </si>
-  <si>
-    <t>APE</t>
-  </si>
-  <si>
-    <t>Total_statut</t>
+    <t>Féminin</t>
+  </si>
+  <si>
+    <t>Masculin</t>
+  </si>
+  <si>
+    <t>Total sexe</t>
   </si>
   <si>
     <t>Indicateurs</t>
@@ -74,10 +74,10 @@
     <t>Indicateursname</t>
   </si>
   <si>
-    <t>Statut</t>
-  </si>
-  <si>
-    <t>Statutname</t>
+    <t>Sexe</t>
+  </si>
+  <si>
+    <t>Sexename</t>
   </si>
   <si>
     <t>Unit</t>
@@ -568,7 +568,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>1404</v>
+        <v>701</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>1405</v>
+        <v>702</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1406</v>
+        <v>703</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -627,7 +627,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,7 +635,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -652,13 +652,28 @@
         <v>20</v>
       </c>
       <c r="F1">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="G1">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>2014</v>
+      </c>
+      <c r="H1">
+        <v>2013</v>
+      </c>
+      <c r="I1">
+        <v>2012</v>
+      </c>
+      <c r="J1">
+        <v>2011</v>
+      </c>
+      <c r="K1">
+        <v>2010</v>
+      </c>
+      <c r="L1">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>225</v>
       </c>
@@ -666,7 +681,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>1404</v>
+        <v>701</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -675,13 +690,28 @@
         <v>21</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>47</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>22</v>
+      </c>
+      <c r="J2">
+        <v>27</v>
+      </c>
+      <c r="K2">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>225</v>
       </c>
@@ -689,7 +719,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>1405</v>
+        <v>702</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -698,9 +728,24 @@
         <v>21</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="G3">
+        <v>119</v>
+      </c>
+      <c r="H3">
+        <v>56</v>
+      </c>
+      <c r="I3">
+        <v>41</v>
+      </c>
+      <c r="J3">
+        <v>68</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
     </row>
